--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Mcam</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>43.6049732908475</v>
+        <v>0.9305633333333333</v>
       </c>
       <c r="H2">
-        <v>43.6049732908475</v>
+        <v>2.79169</v>
       </c>
       <c r="I2">
-        <v>0.8533018011709556</v>
+        <v>0.01768777137856805</v>
       </c>
       <c r="J2">
-        <v>0.8533018011709556</v>
+        <v>0.01768777137856806</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.0369900464617</v>
+        <v>84.07754166666668</v>
       </c>
       <c r="N2">
-        <v>33.0369900464617</v>
+        <v>252.232625</v>
       </c>
       <c r="O2">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="P2">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="Q2">
-        <v>1440.577068585957</v>
+        <v>78.23947743180555</v>
       </c>
       <c r="R2">
-        <v>1440.577068585957</v>
+        <v>704.1552968862501</v>
       </c>
       <c r="S2">
-        <v>0.2563086192638986</v>
+        <v>0.009190061554471629</v>
       </c>
       <c r="T2">
-        <v>0.2563086192638986</v>
+        <v>0.009190061554471631</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>43.6049732908475</v>
+        <v>0.9305633333333333</v>
       </c>
       <c r="H3">
-        <v>43.6049732908475</v>
+        <v>2.79169</v>
       </c>
       <c r="I3">
-        <v>0.8533018011709556</v>
+        <v>0.01768777137856805</v>
       </c>
       <c r="J3">
-        <v>0.8533018011709556</v>
+        <v>0.01768777137856806</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7075820872858271</v>
+        <v>0.717126</v>
       </c>
       <c r="N3">
-        <v>0.7075820872858271</v>
+        <v>2.151378</v>
       </c>
       <c r="O3">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="P3">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="Q3">
-        <v>30.85409801718061</v>
+        <v>0.66733116098</v>
       </c>
       <c r="R3">
-        <v>30.85409801718061</v>
+        <v>6.005980448820001</v>
       </c>
       <c r="S3">
-        <v>0.005489585690253326</v>
+        <v>7.838516626045528E-05</v>
       </c>
       <c r="T3">
-        <v>0.005489585690253326</v>
+        <v>7.83851662604553E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>43.6049732908475</v>
+        <v>0.9305633333333333</v>
       </c>
       <c r="H4">
-        <v>43.6049732908475</v>
+        <v>2.79169</v>
       </c>
       <c r="I4">
-        <v>0.8533018011709556</v>
+        <v>0.01768777137856805</v>
       </c>
       <c r="J4">
-        <v>0.8533018011709556</v>
+        <v>0.01768777137856806</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.242065041678</v>
+        <v>77.02626533333334</v>
       </c>
       <c r="N4">
-        <v>76.242065041678</v>
+        <v>231.078796</v>
       </c>
       <c r="O4">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370478</v>
       </c>
       <c r="P4">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370479</v>
       </c>
       <c r="Q4">
-        <v>3324.533209781427</v>
+        <v>71.67781822280445</v>
       </c>
       <c r="R4">
-        <v>3324.533209781427</v>
+        <v>645.1003640052401</v>
       </c>
       <c r="S4">
-        <v>0.5915035962168037</v>
+        <v>0.008419324657835967</v>
       </c>
       <c r="T4">
-        <v>0.5915035962168037</v>
+        <v>0.008419324657835969</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.49649307311652</v>
+        <v>44.154177</v>
       </c>
       <c r="H5">
-        <v>7.49649307311652</v>
+        <v>132.462531</v>
       </c>
       <c r="I5">
-        <v>0.1466981988290444</v>
+        <v>0.8392647337471152</v>
       </c>
       <c r="J5">
-        <v>0.1466981988290444</v>
+        <v>0.8392647337471153</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.0369900464617</v>
+        <v>84.07754166666668</v>
       </c>
       <c r="N5">
-        <v>33.0369900464617</v>
+        <v>252.232625</v>
       </c>
       <c r="O5">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="P5">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="Q5">
-        <v>247.6615670399196</v>
+        <v>3712.374656474876</v>
       </c>
       <c r="R5">
-        <v>247.6615670399196</v>
+        <v>33411.37190827388</v>
       </c>
       <c r="S5">
-        <v>0.04406414323604626</v>
+        <v>0.4360580198915735</v>
       </c>
       <c r="T5">
-        <v>0.04406414323604626</v>
+        <v>0.4360580198915736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.49649307311652</v>
+        <v>44.154177</v>
       </c>
       <c r="H6">
-        <v>7.49649307311652</v>
+        <v>132.462531</v>
       </c>
       <c r="I6">
-        <v>0.1466981988290444</v>
+        <v>0.8392647337471152</v>
       </c>
       <c r="J6">
-        <v>0.1466981988290444</v>
+        <v>0.8392647337471153</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7075820872858271</v>
+        <v>0.717126</v>
       </c>
       <c r="N6">
-        <v>0.7075820872858271</v>
+        <v>2.151378</v>
       </c>
       <c r="O6">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="P6">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="Q6">
-        <v>5.304384215999532</v>
+        <v>31.664108335302</v>
       </c>
       <c r="R6">
-        <v>5.304384215999532</v>
+        <v>284.9769750177181</v>
       </c>
       <c r="S6">
-        <v>0.0009437602639215789</v>
+        <v>0.00371928742651072</v>
       </c>
       <c r="T6">
-        <v>0.0009437602639215789</v>
+        <v>0.003719287426510722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>44.154177</v>
+      </c>
+      <c r="H7">
+        <v>132.462531</v>
+      </c>
+      <c r="I7">
+        <v>0.8392647337471152</v>
+      </c>
+      <c r="J7">
+        <v>0.8392647337471153</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>77.02626533333334</v>
+      </c>
+      <c r="N7">
+        <v>231.078796</v>
+      </c>
+      <c r="O7">
+        <v>0.4759969177370478</v>
+      </c>
+      <c r="P7">
+        <v>0.4759969177370479</v>
+      </c>
+      <c r="Q7">
+        <v>3401.031353176965</v>
+      </c>
+      <c r="R7">
+        <v>30609.28217859268</v>
+      </c>
+      <c r="S7">
+        <v>0.399487426429031</v>
+      </c>
+      <c r="T7">
+        <v>0.399487426429031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.525807</v>
+      </c>
+      <c r="H8">
+        <v>22.577421</v>
+      </c>
+      <c r="I8">
+        <v>0.1430474948743168</v>
+      </c>
+      <c r="J8">
+        <v>0.1430474948743168</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>84.07754166666668</v>
+      </c>
+      <c r="N8">
+        <v>252.232625</v>
+      </c>
+      <c r="O8">
+        <v>0.5195714800795683</v>
+      </c>
+      <c r="P8">
+        <v>0.5195714800795683</v>
+      </c>
+      <c r="Q8">
+        <v>632.7513516177918</v>
+      </c>
+      <c r="R8">
+        <v>5694.762164560126</v>
+      </c>
+      <c r="S8">
+        <v>0.07432339863352323</v>
+      </c>
+      <c r="T8">
+        <v>0.07432339863352323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>7.49649307311652</v>
-      </c>
-      <c r="H7">
-        <v>7.49649307311652</v>
-      </c>
-      <c r="I7">
-        <v>0.1466981988290444</v>
-      </c>
-      <c r="J7">
-        <v>0.1466981988290444</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>76.242065041678</v>
-      </c>
-      <c r="N7">
-        <v>76.242065041678</v>
-      </c>
-      <c r="O7">
-        <v>0.6931938915458803</v>
-      </c>
-      <c r="P7">
-        <v>0.6931938915458803</v>
-      </c>
-      <c r="Q7">
-        <v>571.5481124650383</v>
-      </c>
-      <c r="R7">
-        <v>571.5481124650383</v>
-      </c>
-      <c r="S7">
-        <v>0.1016902953290766</v>
-      </c>
-      <c r="T7">
-        <v>0.1016902953290766</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.525807</v>
+      </c>
+      <c r="H9">
+        <v>22.577421</v>
+      </c>
+      <c r="I9">
+        <v>0.1430474948743168</v>
+      </c>
+      <c r="J9">
+        <v>0.1430474948743168</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.717126</v>
+      </c>
+      <c r="N9">
+        <v>2.151378</v>
+      </c>
+      <c r="O9">
+        <v>0.004431602183383778</v>
+      </c>
+      <c r="P9">
+        <v>0.004431602183383778</v>
+      </c>
+      <c r="Q9">
+        <v>5.396951870682001</v>
+      </c>
+      <c r="R9">
+        <v>48.57256683613801</v>
+      </c>
+      <c r="S9">
+        <v>0.000633929590612602</v>
+      </c>
+      <c r="T9">
+        <v>0.0006339295906126021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.525807</v>
+      </c>
+      <c r="H10">
+        <v>22.577421</v>
+      </c>
+      <c r="I10">
+        <v>0.1430474948743168</v>
+      </c>
+      <c r="J10">
+        <v>0.1430474948743168</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>77.02626533333334</v>
+      </c>
+      <c r="N10">
+        <v>231.078796</v>
+      </c>
+      <c r="O10">
+        <v>0.4759969177370478</v>
+      </c>
+      <c r="P10">
+        <v>0.4759969177370479</v>
+      </c>
+      <c r="Q10">
+        <v>579.6848068294574</v>
+      </c>
+      <c r="R10">
+        <v>5217.163261465116</v>
+      </c>
+      <c r="S10">
+        <v>0.06809016665018093</v>
+      </c>
+      <c r="T10">
+        <v>0.06809016665018094</v>
       </c>
     </row>
   </sheetData>
